--- a/results/mp/logistic/corona/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,13 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>crude</t>
   </si>
   <si>
     <t>died</t>
@@ -55,21 +55,15 @@
     <t>collapse</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -82,10 +76,13 @@
     <t>drop</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>stop</t>
@@ -103,6 +100,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
@@ -112,115 +112,118 @@
     <t>friend</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>positive</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>alert</t>
@@ -229,28 +232,16 @@
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>helping</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -608,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +607,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -677,13 +668,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,38 +718,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C4">
+        <v>210</v>
+      </c>
+      <c r="D4">
+        <v>210</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="L4">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>0.9322033898305084</v>
-      </c>
-      <c r="L4">
-        <v>55</v>
-      </c>
-      <c r="M4">
-        <v>55</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -769,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -795,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +918,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5945945945945946</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +968,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5600000000000001</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8459530026109661</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>324</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1018,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5526315789473685</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4722222222222222</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1118,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4705882352941176</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L12">
         <v>18</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12">
-        <v>0.8076923076923077</v>
-      </c>
-      <c r="L12">
-        <v>21</v>
-      </c>
       <c r="M12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,38 +1168,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4497354497354497</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C13">
+        <v>176</v>
+      </c>
+      <c r="D13">
+        <v>176</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>340</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>0.8018867924528302</v>
+      </c>
+      <c r="L13">
         <v>85</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>85</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>104</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L13">
-        <v>29</v>
-      </c>
-      <c r="M13">
-        <v>29</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1219,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1218,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.8018867924528302</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3488372093023256</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C15">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>336</v>
+        <v>109</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7804878048780488</v>
+        <v>0.7890625</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1327,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3389830508474576</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1368,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2533333333333334</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2281879194630873</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1436,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,37 +1468,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.07936507936507936</v>
+        <v>0.006443298969072165</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>232</v>
+        <v>3084</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.7659574468085106</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1519,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,87 +1518,63 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007407407407407408</v>
+        <v>0.006083294337856809</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E20">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="F20">
-        <v>0.92</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3082</v>
+        <v>2124</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.7625</v>
+      </c>
+      <c r="L20">
+        <v>122</v>
+      </c>
+      <c r="M20">
+        <v>122</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K20">
-        <v>0.75</v>
-      </c>
-      <c r="L20">
-        <v>27</v>
-      </c>
-      <c r="M20">
-        <v>27</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.006548175865294668</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>0.26</v>
-      </c>
-      <c r="F21">
-        <v>0.74</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2124</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1619,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1645,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.696969696969697</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1697,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.6818181818181818</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1723,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.6744186046511628</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1749,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1775,12 +1742,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K28">
         <v>0.6666666666666666</v>
@@ -1806,16 +1773,16 @@
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.66</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1827,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>0.6507936507936508</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1853,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.6323529411764706</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L31">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1879,12 +1846,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K32">
         <v>0.6285714285714286</v>
@@ -1910,16 +1877,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.6086956521739131</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1936,16 +1903,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1957,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.5714285714285714</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1983,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.5690376569037657</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L36">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M36">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2009,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.5638297872340425</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L37">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2035,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.5416666666666666</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2061,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.5389830508474577</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L39">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2087,21 +2054,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.5384615384615384</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2113,21 +2080,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.5285714285714286</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2139,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2165,21 +2132,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.4814814814814815</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2191,21 +2158,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.4761904761904762</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2217,21 +2184,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.4606741573033708</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2243,21 +2210,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.4545454545454545</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2269,21 +2236,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.4117647058823529</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2295,21 +2262,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>0.358974358974359</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2321,12 +2288,12 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K49">
         <v>0.3333333333333333</v>
@@ -2352,16 +2319,16 @@
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>0.273972602739726</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2378,16 +2345,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K51">
-        <v>0.234375</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2399,59 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K52">
-        <v>0.2241379310344828</v>
-      </c>
-      <c r="L52">
-        <v>13</v>
-      </c>
-      <c r="M52">
-        <v>14</v>
-      </c>
-      <c r="N52">
-        <v>0.93</v>
-      </c>
-      <c r="O52">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
         <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K53">
-        <v>0.005017246785826278</v>
-      </c>
-      <c r="L53">
-        <v>16</v>
-      </c>
-      <c r="M53">
-        <v>28</v>
-      </c>
-      <c r="N53">
-        <v>0.57</v>
-      </c>
-      <c r="O53">
-        <v>0.43</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3173</v>
       </c>
     </row>
   </sheetData>
